--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.503911</v>
+        <v>2.430374</v>
       </c>
       <c r="H2">
-        <v>4.511733</v>
+        <v>7.291122000000001</v>
       </c>
       <c r="I2">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915244</v>
       </c>
       <c r="J2">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915246</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>148.807066637564</v>
+        <v>408.5697534954227</v>
       </c>
       <c r="R2">
-        <v>1339.263599738076</v>
+        <v>3677.127781458804</v>
       </c>
       <c r="S2">
-        <v>0.001323166123113162</v>
+        <v>0.002752238880302499</v>
       </c>
       <c r="T2">
-        <v>0.001323166123113162</v>
+        <v>0.0027522388803025</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.503911</v>
+        <v>2.430374</v>
       </c>
       <c r="H3">
-        <v>4.511733</v>
+        <v>7.291122000000001</v>
       </c>
       <c r="I3">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915244</v>
       </c>
       <c r="J3">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915246</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>245.1468708876924</v>
+        <v>396.1661170021393</v>
       </c>
       <c r="R3">
-        <v>2206.321837989231</v>
+        <v>3565.495053019254</v>
       </c>
       <c r="S3">
-        <v>0.002179802626818991</v>
+        <v>0.002668684553723266</v>
       </c>
       <c r="T3">
-        <v>0.002179802626818991</v>
+        <v>0.002668684553723267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.503911</v>
+        <v>2.430374</v>
       </c>
       <c r="H4">
-        <v>4.511733</v>
+        <v>7.291122000000001</v>
       </c>
       <c r="I4">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915244</v>
       </c>
       <c r="J4">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915246</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>216.9734459077634</v>
+        <v>403.42635948022</v>
       </c>
       <c r="R4">
-        <v>1952.76101316987</v>
+        <v>3630.83723532198</v>
       </c>
       <c r="S4">
-        <v>0.001929289513780434</v>
+        <v>0.002717591555422845</v>
       </c>
       <c r="T4">
-        <v>0.001929289513780434</v>
+        <v>0.002717591555422846</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.503911</v>
+        <v>2.430374</v>
       </c>
       <c r="H5">
-        <v>4.511733</v>
+        <v>7.291122000000001</v>
       </c>
       <c r="I5">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915244</v>
       </c>
       <c r="J5">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915246</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>98.34992417317338</v>
+        <v>160.9557332286407</v>
       </c>
       <c r="R5">
-        <v>885.1493175585603</v>
+        <v>1448.601599057766</v>
       </c>
       <c r="S5">
-        <v>0.0008745101346137354</v>
+        <v>0.001084242343466633</v>
       </c>
       <c r="T5">
-        <v>0.0008745101346137355</v>
+        <v>0.001084242343466634</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>433.257233</v>
       </c>
       <c r="I6">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605952</v>
       </c>
       <c r="J6">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605954</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>14289.79461821823</v>
+        <v>24278.26621018259</v>
       </c>
       <c r="R6">
-        <v>128608.1515639641</v>
+        <v>218504.3958916433</v>
       </c>
       <c r="S6">
-        <v>0.1270623268928693</v>
+        <v>0.1635451171760504</v>
       </c>
       <c r="T6">
-        <v>0.1270623268928693</v>
+        <v>0.1635451171760504</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>433.257233</v>
       </c>
       <c r="I7">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605952</v>
       </c>
       <c r="J7">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605954</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
-        <v>23541.21020889531</v>
+        <v>23541.2102088953</v>
       </c>
       <c r="R7">
-        <v>211870.8918800578</v>
+        <v>211870.8918800577</v>
       </c>
       <c r="S7">
-        <v>0.2093242784051555</v>
+        <v>0.1585801040629936</v>
       </c>
       <c r="T7">
-        <v>0.2093242784051556</v>
+        <v>0.1585801040629937</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>433.257233</v>
       </c>
       <c r="I8">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605952</v>
       </c>
       <c r="J8">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605954</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>20835.74422699054</v>
+        <v>23972.63250123416</v>
       </c>
       <c r="R8">
-        <v>187521.6980429149</v>
+        <v>215753.6925111075</v>
       </c>
       <c r="S8">
-        <v>0.1852677532993256</v>
+        <v>0.1614862839665374</v>
       </c>
       <c r="T8">
-        <v>0.1852677532993256</v>
+        <v>0.1614862839665374</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>433.257233</v>
       </c>
       <c r="I9">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605952</v>
       </c>
       <c r="J9">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605954</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>9444.445407790954</v>
+        <v>9564.403889295367</v>
       </c>
       <c r="R9">
-        <v>85000.00867011858</v>
+        <v>86079.6350036583</v>
       </c>
       <c r="S9">
-        <v>0.08397833851276316</v>
+        <v>0.06442847035501384</v>
       </c>
       <c r="T9">
-        <v>0.08397833851276319</v>
+        <v>0.06442847035501385</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>92.49530699999998</v>
+        <v>116.470388</v>
       </c>
       <c r="H10">
-        <v>277.485921</v>
+        <v>349.411164</v>
       </c>
       <c r="I10">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="J10">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>9152.107613024267</v>
+        <v>19579.81681612634</v>
       </c>
       <c r="R10">
-        <v>82368.9685172184</v>
+        <v>176218.351345137</v>
       </c>
       <c r="S10">
-        <v>0.08137892253554341</v>
+        <v>0.1318950623474073</v>
       </c>
       <c r="T10">
-        <v>0.08137892253554342</v>
+        <v>0.1318950623474073</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>92.49530699999998</v>
+        <v>116.470388</v>
       </c>
       <c r="H11">
-        <v>277.485921</v>
+        <v>349.411164</v>
       </c>
       <c r="I11">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="J11">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>15077.31181090268</v>
+        <v>18985.39951451611</v>
       </c>
       <c r="R11">
-        <v>135695.8062981241</v>
+        <v>170868.5956306449</v>
       </c>
       <c r="S11">
-        <v>0.1340647905142185</v>
+        <v>0.1278909029728575</v>
       </c>
       <c r="T11">
-        <v>0.1340647905142186</v>
+        <v>0.1278909029728575</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>92.49530699999998</v>
+        <v>116.470388</v>
       </c>
       <c r="H12">
-        <v>277.485921</v>
+        <v>349.411164</v>
       </c>
       <c r="I12">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="J12">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>13344.55661943191</v>
+        <v>19333.33084458964</v>
       </c>
       <c r="R12">
-        <v>120101.0095748872</v>
+        <v>173999.9776013067</v>
       </c>
       <c r="S12">
-        <v>0.1186574377532992</v>
+        <v>0.1302346646588642</v>
       </c>
       <c r="T12">
-        <v>0.1186574377532992</v>
+        <v>0.1302346646588642</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>92.49530699999998</v>
+        <v>116.470388</v>
       </c>
       <c r="H13">
-        <v>277.485921</v>
+        <v>349.411164</v>
       </c>
       <c r="I13">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="J13">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>6048.83296273808</v>
+        <v>7713.453443776256</v>
       </c>
       <c r="R13">
-        <v>54439.49666464272</v>
+        <v>69421.0809939863</v>
       </c>
       <c r="S13">
-        <v>0.05378515309463709</v>
+        <v>0.05195995613415386</v>
       </c>
       <c r="T13">
-        <v>0.0537851530946371</v>
+        <v>0.05195995613415386</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.041547</v>
+        <v>0.1994</v>
       </c>
       <c r="H14">
-        <v>0.124641</v>
+        <v>0.5982000000000001</v>
       </c>
       <c r="I14">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065188</v>
       </c>
       <c r="J14">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065189</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>4.110939542028</v>
+        <v>33.52109957026667</v>
       </c>
       <c r="R14">
-        <v>36.998455878252</v>
+        <v>301.6898961324</v>
       </c>
       <c r="S14">
-        <v>3.65537474737418E-05</v>
+        <v>0.0002258073994917319</v>
       </c>
       <c r="T14">
-        <v>3.655374747374181E-05</v>
+        <v>0.0002258073994917319</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.041547</v>
+        <v>0.1994</v>
       </c>
       <c r="H15">
-        <v>0.124641</v>
+        <v>0.5982000000000001</v>
       </c>
       <c r="I15">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065188</v>
       </c>
       <c r="J15">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065189</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>6.772420073243</v>
+        <v>32.50344339193334</v>
       </c>
       <c r="R15">
-        <v>60.951780659187</v>
+        <v>292.5309905274</v>
       </c>
       <c r="S15">
-        <v>6.021916172994851E-05</v>
+        <v>0.0002189521859649664</v>
       </c>
       <c r="T15">
-        <v>6.021916172994852E-05</v>
+        <v>0.0002189521859649665</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.041547</v>
+        <v>0.1994</v>
       </c>
       <c r="H16">
-        <v>0.124641</v>
+        <v>0.5982000000000001</v>
       </c>
       <c r="I16">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065188</v>
       </c>
       <c r="J16">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065189</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>5.99410188311</v>
+        <v>33.099109882</v>
       </c>
       <c r="R16">
-        <v>53.94691694799</v>
+        <v>297.8919889380001</v>
       </c>
       <c r="S16">
-        <v>5.329849401263484E-05</v>
+        <v>0.000222964760218516</v>
       </c>
       <c r="T16">
-        <v>5.329849401263485E-05</v>
+        <v>0.000222964760218516</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.041547</v>
+        <v>0.1994</v>
       </c>
       <c r="H17">
-        <v>0.124641</v>
+        <v>0.5982000000000001</v>
       </c>
       <c r="I17">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065188</v>
       </c>
       <c r="J17">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065189</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>2.71701204368</v>
+        <v>13.20561082606667</v>
       </c>
       <c r="R17">
-        <v>24.45310839312</v>
+        <v>118.8504974346</v>
       </c>
       <c r="S17">
-        <v>2.415919064545499E-05</v>
+        <v>8.895664753130454E-05</v>
       </c>
       <c r="T17">
-        <v>2.4159190645455E-05</v>
+        <v>8.895664753130456E-05</v>
       </c>
     </row>
   </sheetData>
